--- a/pulse/models/Skin_cancer_solution.xlsx
+++ b/pulse/models/Skin_cancer_solution.xlsx
@@ -160,7 +160,7 @@
     <t>Moles themselves are not dangerous and are considered harmless. Therefore, the danger rating for melanocytic nevi is very low, around 1 out of 10. However, it is essential to monitor moles for any changes, as very rarely, a melanocytic nevus can transform into a melanoma (a type of skin cancer). This transformation is exceedingly rare but emphasizes the importance of regular self-examination and medical check-ups.</t>
   </si>
   <si>
-    <t xml:space="preserve">Acne </t>
+    <t>Acne</t>
   </si>
   <si>
     <t>Acne is a chronic skin disorder characterized by clogged hair follicles leading to pimples and cysts, often triggered by hormonal changes. Rosacea is a chronic inflammatory condition causing facial redness, visible blood vessels, and small bumps, typically affecting fair-skinned individuals, exacerbated by triggers like heat and stress. Both conditions require proper management by a dermatologist through skincare, topical or oral medications, and lifestyle adjustments to control symptoms and improve the affected individual's well-being.</t>
@@ -178,7 +178,7 @@
     <t>Yes, a doctor's concern is needed for both acne and rosacea. These are chronic skin conditions that can vary in severity and require proper diagnosis and management. A dermatologist or healthcare professional can accurately assess the condition, determine the specific type and cause of acne or rosacea, and recommend appropriate treatment plans.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bullous </t>
+    <t>Bullous</t>
   </si>
   <si>
     <t>Bullous skin conditions are characterized by the formation of large, fluid-filled blisters (bullae) on the skin's surface. These blisters may appear clear, cloudy, or bloody, depending on the underlying cause. Bullous conditions can be localized to a specific area or affect larger portions of the body.</t>
@@ -819,7 +819,7 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="8" t="s">
